--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sskt_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/sskt_vorlage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7816B21-A16E-4C38-8AD0-5DB84E58C106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AED7F-34DC-4FED-846D-12F1DF653E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="11610" windowHeight="10245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2213,16 +2213,12 @@
     <mergeCell ref="I3:I4"/>
   </mergeCells>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2268,7 +2264,20 @@
 </spe:Receivers>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E758A0F93049BE4CAD441F10C0D8186D" ma:contentTypeVersion="5" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fb340e34ecc5d059b634082484788e96">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="576ce185-3b2e-4f75-8b7c-efeb82226bea" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v3/fields" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae5cd419a40dc0c21009e0c04d2bd83e" ns2:_="" ns3:_="">
     <xsd:import namespace="576ce185-3b2e-4f75-8b7c-efeb82226bea"/>
@@ -2460,16 +2469,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{947F1741-2986-4B63-8B5C-D0468C671233}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
@@ -2477,15 +2485,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FA61470-DD61-4999-8627-225AC049B66F}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD45C59E-C13E-4B92-9551-AE1790848EFA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2502,12 +2510,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1C5838C-81AB-4B9A-B282-4E4B57DAFB8B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>